--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T12:58:39+10:00</t>
+    <t>2024-05-15T15:51:17+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,6 +655,10 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
     <t>Medication Detail</t>
   </si>
   <si>
@@ -693,6 +697,9 @@
   </si>
   <si>
     <t>Coded Medication</t>
+  </si>
+  <si>
+    <t>http://fhir-arf-register.nardhc.org/ValueSet/arf-medication-code-vs</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x]:medicationCodeableConcept.id</t>
@@ -3635,16 +3642,16 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3673,23 +3680,23 @@
         <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>200</v>
@@ -3707,13 +3714,13 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3721,26 +3728,26 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>74</v>
@@ -3752,13 +3759,13 @@
         <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3784,13 +3791,11 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -3823,13 +3828,13 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3837,10 +3842,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3863,13 +3868,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3920,7 +3925,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3938,7 +3943,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3949,10 +3954,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3978,10 +3983,10 @@
         <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>147</v>
@@ -4025,7 +4030,7 @@
         <v>133</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
@@ -4034,7 +4039,7 @@
         <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4052,7 +4057,7 @@
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4063,10 +4068,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4089,19 +4094,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4138,7 +4143,7 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
@@ -4148,7 +4153,7 @@
         <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4166,24 +4171,24 @@
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
@@ -4205,19 +4210,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4246,7 +4251,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4264,7 +4269,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4282,21 +4287,21 @@
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4319,13 +4324,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4376,7 +4381,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4394,7 +4399,7 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4405,10 +4410,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4434,10 +4439,10 @@
         <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>147</v>
@@ -4481,7 +4486,7 @@
         <v>133</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
@@ -4490,7 +4495,7 @@
         <v>134</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4508,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4519,10 +4524,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4548,23 +4553,23 @@
         <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
@@ -4606,7 +4611,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4624,21 +4629,21 @@
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4661,16 +4666,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4720,7 +4725,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4738,21 +4743,21 @@
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4778,14 +4783,14 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4834,7 +4839,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4852,21 +4857,21 @@
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4889,17 +4894,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4948,7 +4953,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4966,21 +4971,21 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5003,19 +5008,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5064,7 +5069,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5082,24 +5087,24 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
@@ -5121,19 +5126,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5162,7 +5167,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5180,7 +5185,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5198,21 +5203,21 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5235,13 +5240,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5292,7 +5297,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5310,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5321,10 +5326,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5350,10 +5355,10 @@
         <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>147</v>
@@ -5397,7 +5402,7 @@
         <v>133</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
@@ -5406,7 +5411,7 @@
         <v>134</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5424,7 +5429,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5435,10 +5440,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5464,23 +5469,23 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -5522,7 +5527,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5540,21 +5545,21 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5577,16 +5582,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5636,7 +5641,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5654,21 +5659,21 @@
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5694,14 +5699,14 @@
         <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5750,7 +5755,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5768,21 +5773,21 @@
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5805,17 +5810,17 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5864,7 +5869,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5882,21 +5887,21 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5919,19 +5924,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5980,7 +5985,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5998,24 +6003,24 @@
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6037,19 +6042,19 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6078,7 +6083,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6096,7 +6101,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6114,21 +6119,21 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6151,13 +6156,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6208,7 +6213,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6226,7 +6231,7 @@
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6237,10 +6242,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6311,7 +6316,7 @@
         <v>133</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
@@ -6320,7 +6325,7 @@
         <v>134</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6349,13 +6354,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6377,13 +6382,13 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6434,7 +6439,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6468,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6492,23 +6497,23 @@
         <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -6550,7 +6555,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6568,21 +6573,21 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6605,16 +6610,16 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6664,7 +6669,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6682,21 +6687,21 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6722,14 +6727,14 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6778,7 +6783,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6796,21 +6801,21 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6833,17 +6838,17 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6892,7 +6897,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6910,21 +6915,21 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6947,19 +6952,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7008,7 +7013,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7026,24 +7031,24 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
@@ -7065,19 +7070,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7106,7 +7111,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7124,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7142,21 +7147,21 @@
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7179,13 +7184,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7236,7 +7241,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7254,7 +7259,7 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7265,10 +7270,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7294,10 +7299,10 @@
         <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>147</v>
@@ -7341,7 +7346,7 @@
         <v>133</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
@@ -7350,7 +7355,7 @@
         <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7368,7 +7373,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7379,10 +7384,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7408,23 +7413,23 @@
         <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>74</v>
@@ -7466,7 +7471,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7484,21 +7489,21 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7521,16 +7526,16 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7580,7 +7585,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7598,21 +7603,21 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7638,14 +7643,14 @@
         <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7694,7 +7699,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7712,21 +7717,21 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7749,17 +7754,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7808,7 +7813,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7826,21 +7831,21 @@
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7863,19 +7868,19 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7924,7 +7929,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7942,21 +7947,21 @@
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7979,19 +7984,19 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8040,7 +8045,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8058,24 +8063,24 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8097,16 +8102,16 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8171,13 +8176,13 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8185,10 +8190,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8211,13 +8216,13 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8268,7 +8273,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>85</v>
@@ -8283,24 +8288,24 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8323,13 +8328,13 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8380,7 +8385,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8395,10 +8400,10 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8409,10 +8414,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8435,16 +8440,16 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8482,17 +8487,17 @@
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8507,13 +8512,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8521,13 +8526,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>74</v>
@@ -8549,16 +8554,16 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8608,7 +8613,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8623,13 +8628,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8637,10 +8642,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8663,13 +8668,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8720,7 +8725,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8738,10 +8743,10 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -8749,10 +8754,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8775,13 +8780,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8832,7 +8837,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8850,10 +8855,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8861,10 +8866,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8887,16 +8892,16 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8946,7 +8951,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8964,7 +8969,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -8975,10 +8980,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9004,13 +9009,13 @@
         <v>184</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9040,7 +9045,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9058,7 +9063,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9073,13 +9078,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9087,10 +9092,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9113,16 +9118,16 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9172,7 +9177,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9187,13 +9192,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9201,10 +9206,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9227,13 +9232,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9284,7 +9289,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9299,10 +9304,10 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9313,10 +9318,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9339,16 +9344,16 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9398,7 +9403,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9416,7 +9421,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:51:17+10:00</t>
+    <t>2024-05-16T11:47:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,10 +653,6 @@
   </si>
   <si>
     <t>MedicationStatement.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
   </si>
   <si>
     <t>Medication Detail</t>
@@ -3642,16 +3638,16 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3680,23 +3676,23 @@
         <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>200</v>
@@ -3714,13 +3710,13 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3728,13 +3724,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -3759,13 +3755,13 @@
         <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3795,7 +3791,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -3828,13 +3824,13 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3842,10 +3838,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3868,13 +3864,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3925,25 +3921,25 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3954,10 +3950,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3983,10 +3979,10 @@
         <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>147</v>
@@ -4030,7 +4026,7 @@
         <v>133</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
@@ -4039,7 +4035,7 @@
         <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4057,7 +4053,7 @@
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4068,10 +4064,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4094,19 +4090,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4143,7 +4139,7 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
@@ -4153,7 +4149,7 @@
         <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4171,24 +4167,24 @@
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
@@ -4210,19 +4206,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4251,7 +4247,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4269,7 +4265,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4287,21 +4283,21 @@
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4324,13 +4320,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4381,25 +4377,25 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4410,10 +4406,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4439,10 +4435,10 @@
         <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>147</v>
@@ -4486,7 +4482,7 @@
         <v>133</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
@@ -4495,7 +4491,7 @@
         <v>134</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4513,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4524,10 +4520,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4553,65 +4549,65 @@
         <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4629,21 +4625,21 @@
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4666,16 +4662,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4725,7 +4721,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4743,21 +4739,21 @@
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4783,14 +4779,14 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4839,7 +4835,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4857,21 +4853,21 @@
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4894,17 +4890,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4953,7 +4949,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4971,21 +4967,21 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5008,19 +5004,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5069,7 +5065,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5087,24 +5083,24 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
@@ -5126,19 +5122,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5167,7 +5163,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5185,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5203,21 +5199,21 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5240,13 +5236,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5297,25 +5293,25 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5326,10 +5322,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5355,10 +5351,10 @@
         <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>147</v>
@@ -5402,7 +5398,7 @@
         <v>133</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
@@ -5411,7 +5407,7 @@
         <v>134</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5429,7 +5425,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5440,10 +5436,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5469,23 +5465,23 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -5527,7 +5523,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5545,21 +5541,21 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5582,16 +5578,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5641,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5659,21 +5655,21 @@
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5699,14 +5695,14 @@
         <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5755,7 +5751,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5773,21 +5769,21 @@
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5810,17 +5806,17 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5869,7 +5865,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5887,21 +5883,21 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5924,19 +5920,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5985,7 +5981,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6003,24 +5999,24 @@
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6042,19 +6038,19 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6083,7 +6079,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6101,7 +6097,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6119,21 +6115,21 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6156,13 +6152,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6213,25 +6209,25 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6242,10 +6238,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6316,7 +6312,7 @@
         <v>133</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
@@ -6325,7 +6321,7 @@
         <v>134</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6354,13 +6350,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6382,13 +6378,13 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6439,7 +6435,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6468,10 +6464,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6497,23 +6493,23 @@
         <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -6555,7 +6551,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6573,21 +6569,21 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6610,16 +6606,16 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6669,7 +6665,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6687,21 +6683,21 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6727,14 +6723,14 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6783,7 +6779,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6801,21 +6797,21 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6838,17 +6834,17 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6897,7 +6893,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6915,21 +6911,21 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6952,19 +6948,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7013,7 +7009,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7031,24 +7027,24 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
@@ -7070,19 +7066,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7111,7 +7107,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7147,21 +7143,21 @@
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7184,13 +7180,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7241,25 +7237,25 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7270,10 +7266,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7299,10 +7295,10 @@
         <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>147</v>
@@ -7346,7 +7342,7 @@
         <v>133</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
@@ -7355,7 +7351,7 @@
         <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7373,7 +7369,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7384,10 +7380,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7413,23 +7409,23 @@
         <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>74</v>
@@ -7471,7 +7467,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7489,21 +7485,21 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7526,16 +7522,16 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7585,7 +7581,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7603,21 +7599,21 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7643,14 +7639,14 @@
         <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7699,7 +7695,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7717,21 +7713,21 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7754,17 +7750,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7813,7 +7809,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7831,21 +7827,21 @@
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7868,19 +7864,19 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7929,7 +7925,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7947,21 +7943,21 @@
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7984,19 +7980,19 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8045,7 +8041,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8063,24 +8059,24 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8102,16 +8098,16 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8176,13 +8172,13 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8190,10 +8186,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8216,13 +8212,13 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8273,7 +8269,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>85</v>
@@ -8288,24 +8284,24 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8328,13 +8324,13 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8385,7 +8381,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8400,10 +8396,10 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8414,10 +8410,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8440,16 +8436,16 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8487,17 +8483,17 @@
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8508,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8526,13 +8522,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>74</v>
@@ -8554,16 +8550,16 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8613,7 +8609,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8628,13 +8624,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8642,10 +8638,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8668,13 +8664,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8725,7 +8721,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8743,10 +8739,10 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -8754,10 +8750,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8780,13 +8776,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8837,7 +8833,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8855,10 +8851,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8866,10 +8862,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8892,16 +8888,16 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8951,7 +8947,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8969,7 +8965,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -8980,10 +8976,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9009,13 +9005,13 @@
         <v>184</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9045,7 +9041,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9063,7 +9059,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9078,13 +9074,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9092,10 +9088,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9118,16 +9114,16 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9177,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9192,13 +9188,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9206,10 +9202,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9232,13 +9228,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9289,7 +9285,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9304,10 +9300,10 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9318,10 +9314,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9344,16 +9340,16 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9403,7 +9399,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9421,7 +9417,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T17:01:27+10:00</t>
+    <t>2024-05-21T11:55:01+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1445,21 +1442,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1806,7 +1788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1920,7 +1902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2034,7 +2016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2146,7 +2128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2260,7 +2242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2374,7 +2356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2488,7 +2470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2602,7 +2584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2712,7 +2694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2826,7 +2808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2942,7 +2924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -2955,13 +2937,13 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -3056,7 +3038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3170,7 +3152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3284,7 +3266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -3398,7 +3380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -3512,7 +3494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3624,7 +3606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -3736,7 +3718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>213</v>
       </c>
@@ -3850,7 +3832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>217</v>
       </c>
@@ -3962,7 +3944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>224</v>
       </c>
@@ -4076,7 +4058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4190,7 +4172,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -4306,7 +4288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>246</v>
       </c>
@@ -4418,7 +4400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>248</v>
       </c>
@@ -4532,7 +4514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>250</v>
       </c>
@@ -4648,7 +4630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>260</v>
       </c>
@@ -4762,7 +4744,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>268</v>
       </c>
@@ -4876,7 +4858,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -4990,7 +4972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>284</v>
       </c>
@@ -5106,7 +5088,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>294</v>
       </c>
@@ -5222,7 +5204,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>299</v>
       </c>
@@ -5334,7 +5316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>300</v>
       </c>
@@ -5448,7 +5430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>301</v>
       </c>
@@ -5564,7 +5546,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>303</v>
       </c>
@@ -5678,7 +5660,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>304</v>
       </c>
@@ -5792,7 +5774,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>305</v>
       </c>
@@ -5906,7 +5888,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>306</v>
       </c>
@@ -6022,7 +6004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>307</v>
       </c>
@@ -6138,7 +6120,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>311</v>
       </c>
@@ -6250,7 +6232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>312</v>
       </c>
@@ -6362,7 +6344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>313</v>
       </c>
@@ -6476,7 +6458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>318</v>
       </c>
@@ -6592,7 +6574,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>320</v>
       </c>
@@ -6706,7 +6688,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>321</v>
       </c>
@@ -6820,7 +6802,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>322</v>
       </c>
@@ -6934,7 +6916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>323</v>
       </c>
@@ -7050,7 +7032,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>324</v>
       </c>
@@ -7166,7 +7148,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>328</v>
       </c>
@@ -7278,7 +7260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>329</v>
       </c>
@@ -7392,7 +7374,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>330</v>
       </c>
@@ -7508,7 +7490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>332</v>
       </c>
@@ -7622,7 +7604,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>333</v>
       </c>
@@ -7736,7 +7718,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>334</v>
       </c>
@@ -7850,7 +7832,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>335</v>
       </c>
@@ -7966,7 +7948,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>336</v>
       </c>
@@ -8082,7 +8064,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>345</v>
       </c>
@@ -8198,7 +8180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>349</v>
       </c>
@@ -8310,7 +8292,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>357</v>
       </c>
@@ -8422,7 +8404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>363</v>
       </c>
@@ -8534,7 +8516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>371</v>
       </c>
@@ -8650,7 +8632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>373</v>
       </c>
@@ -8762,7 +8744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>378</v>
       </c>
@@ -8874,7 +8856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>384</v>
       </c>
@@ -8988,7 +8970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>390</v>
       </c>
@@ -9100,7 +9082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>398</v>
       </c>
@@ -9214,7 +9196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>405</v>
       </c>
@@ -9326,7 +9308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>411</v>
       </c>
@@ -9441,24 +9423,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/au-medicationstatement</t>
+    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-medicationstatement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1097,7 +1100,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-medication)
 </t>
   </si>
   <si>
@@ -1132,7 +1135,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-encounter)
 </t>
   </si>
   <si>
@@ -1197,7 +1200,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-practitioner)
+    <t xml:space="preserve">Reference(http://fhir-arf-register.nardhc.org/StructureDefinition/ARFPractitioner|http://fhir-arf-register.nardhc.org/StructureDefinition/ARFPractitionerRole)
 </t>
   </si>
   <si>
@@ -1311,6 +1314,14 @@
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au-core-mst-03
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+au-core-mst-03:If present, the dosage shall at least have text or patient instructions {text.exists() or patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -1442,6 +1453,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1635,7 +1661,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1788,7 +1814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1902,7 +1928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2016,7 +2042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2128,7 +2154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2242,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2356,7 +2382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2584,7 +2610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2694,7 +2720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2808,7 +2834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2924,7 +2950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -3038,7 +3064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3057,7 +3083,7 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3152,7 +3178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3266,7 +3292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -3285,7 +3311,7 @@
         <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>88</v>
@@ -3380,7 +3406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -3399,7 +3425,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3494,7 +3520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3513,7 +3539,7 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3606,7 +3632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -3625,7 +3651,7 @@
         <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3718,7 +3744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>213</v>
       </c>
@@ -3832,7 +3858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>217</v>
       </c>
@@ -3944,7 +3970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>224</v>
       </c>
@@ -4058,7 +4084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4172,7 +4198,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -4193,7 +4219,7 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -4288,7 +4314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>246</v>
       </c>
@@ -4400,7 +4426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>248</v>
       </c>
@@ -4514,7 +4540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>250</v>
       </c>
@@ -4630,7 +4656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>260</v>
       </c>
@@ -4744,7 +4770,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>268</v>
       </c>
@@ -4858,7 +4884,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -4972,7 +4998,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>284</v>
       </c>
@@ -5088,7 +5114,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>294</v>
       </c>
@@ -5204,7 +5230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>299</v>
       </c>
@@ -5316,7 +5342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>300</v>
       </c>
@@ -5430,7 +5456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>301</v>
       </c>
@@ -5546,7 +5572,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>303</v>
       </c>
@@ -5660,7 +5686,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>304</v>
       </c>
@@ -5774,7 +5800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>305</v>
       </c>
@@ -5888,7 +5914,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>306</v>
       </c>
@@ -6004,7 +6030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>307</v>
       </c>
@@ -6025,7 +6051,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>311</v>
       </c>
@@ -6232,7 +6258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>312</v>
       </c>
@@ -6344,7 +6370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>313</v>
       </c>
@@ -6458,7 +6484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>318</v>
       </c>
@@ -6574,7 +6600,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>320</v>
       </c>
@@ -6688,7 +6714,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>321</v>
       </c>
@@ -6802,7 +6828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>322</v>
       </c>
@@ -6916,7 +6942,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>323</v>
       </c>
@@ -7032,7 +7058,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>324</v>
       </c>
@@ -7148,7 +7174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>328</v>
       </c>
@@ -7260,7 +7286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>329</v>
       </c>
@@ -7374,7 +7400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>330</v>
       </c>
@@ -7490,7 +7516,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>332</v>
       </c>
@@ -7604,7 +7630,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>333</v>
       </c>
@@ -7718,7 +7744,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>334</v>
       </c>
@@ -7832,7 +7858,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>335</v>
       </c>
@@ -7948,7 +7974,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>336</v>
       </c>
@@ -8064,7 +8090,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>345</v>
       </c>
@@ -8180,7 +8206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>349</v>
       </c>
@@ -8199,7 +8225,7 @@
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>76</v>
@@ -8292,7 +8318,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>357</v>
       </c>
@@ -8311,7 +8337,7 @@
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
@@ -8404,7 +8430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>363</v>
       </c>
@@ -8423,7 +8449,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>76</v>
@@ -8516,7 +8542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>371</v>
       </c>
@@ -8537,7 +8563,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>76</v>
@@ -8632,7 +8658,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>373</v>
       </c>
@@ -8651,7 +8677,7 @@
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>76</v>
@@ -8744,7 +8770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>378</v>
       </c>
@@ -8763,7 +8789,7 @@
         <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>76</v>
@@ -8856,7 +8882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>384</v>
       </c>
@@ -8970,7 +8996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>390</v>
       </c>
@@ -8989,7 +9015,7 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -9082,7 +9108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>398</v>
       </c>
@@ -9196,7 +9222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>405</v>
       </c>
@@ -9215,7 +9241,7 @@
         <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>76</v>
@@ -9308,7 +9334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>411</v>
       </c>
@@ -9327,7 +9353,7 @@
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>76</v>
@@ -9404,16 +9430,16 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9423,6 +9449,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN68">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI67">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-medicationstatement</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/au-medicationstatement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -754,7 +751,7 @@
 </t>
   </si>
   <si>
-    <t>Medication Codes</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -766,47 +763,44 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.extension:medicationClass</t>
+  </si>
+  <si>
+    <t>medicationClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
 </t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs</t>
-  </si>
-  <si>
-    <t>pbs</t>
-  </si>
-  <si>
-    <t>PBS Item Code</t>
-  </si>
-  <si>
-    <t>PBS code from http://pbs.gov.au/code/item. Use of PBS as a code to refer to a type of medication, this excludes implication of context based on the PBS code. Where context is to be implied or stated PBS code needs to be associated with recording a prescription (MedicationRequest) or dispense record (MedicationDispense).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org.au/ValueSet/pbs-item</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.system</t>
+    <t>Medication type</t>
+  </si>
+  <si>
+    <t>The type of information covered by the medication coding, e.g. branded product with no strength or form.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.system</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding.system</t>
@@ -824,9 +818,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://pbs.gov.au/code/item</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -836,7 +827,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.version</t>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.version</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding.version</t>
@@ -860,7 +851,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.code</t>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.code</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding.code</t>
@@ -884,7 +875,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.display</t>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.display</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding.display</t>
@@ -908,7 +899,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:pbs.userSelected</t>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding.userSelected</t>
@@ -939,133 +930,6 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin</t>
-  </si>
-  <si>
-    <t>gtin</t>
-  </si>
-  <si>
-    <t>Medication Package Global Trade Item Number (GTIN)</t>
-  </si>
-  <si>
-    <t>GTIN value from http://www.gs1.org/gtin.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-GTIN</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.system</t>
-  </si>
-  <si>
-    <t>http://www.gs1.org/gtin</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.version</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.code</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.display</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:gtin.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>AMT Medicines</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.extension:medicationClass</t>
-  </si>
-  <si>
-    <t>medicationClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
-</t>
-  </si>
-  <si>
-    <t>Medication type</t>
-  </si>
-  <si>
-    <t>The type of information covered by the medication coding, e.g. branded product with no strength or form.</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.system</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.version</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.code</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.display</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:amt.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage</t>
-  </si>
-  <si>
-    <t>mimsPackage</t>
-  </si>
-  <si>
-    <t>MIMS Package</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org.au/ValueSet/mims</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.system</t>
-  </si>
-  <si>
-    <t>http://www.mims.com.au/codes</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.version</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.code</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.display</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding:mimsPackage.userSelected</t>
-  </si>
-  <si>
     <t>MedicationStatement.medication[x]:medicationCodeableConcept.text</t>
   </si>
   <si>
@@ -1100,7 +964,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-medication)
+    <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
@@ -1135,7 +999,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-encounter)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1314,14 +1178,6 @@
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au-core-mst-03
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-au-core-mst-03:If present, the dosage shall at least have text or patient instructions {text.exists() or patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -1453,21 +1309,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1642,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,7 +1492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="94.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="90.8125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.05859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1814,7 +1655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1928,7 +1769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2042,7 +1883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2154,7 +1995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2268,7 +2109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2382,7 +2223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2496,7 +2337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2610,7 +2451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2720,7 +2561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2834,7 +2675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2950,7 +2791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -3064,7 +2905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3083,7 +2924,7 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3178,7 +3019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3292,7 +3133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -3311,7 +3152,7 @@
         <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>88</v>
@@ -3406,7 +3247,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -3425,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3520,7 +3361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3539,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3632,7 +3473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -3651,7 +3492,7 @@
         <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3744,7 +3585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>213</v>
       </c>
@@ -3858,7 +3699,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>217</v>
       </c>
@@ -3970,7 +3811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>224</v>
       </c>
@@ -4084,7 +3925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4161,17 +4002,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4189,25 +4032,23 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN22" t="s" s="2">
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
+      <c r="B23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4216,32 +4057,28 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4265,11 +4102,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4287,39 +4126,39 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4330,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4342,13 +4181,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4387,37 +4226,37 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4426,23 +4265,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4454,17 +4295,15 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4501,16 +4340,16 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>229</v>
@@ -4531,7 +4370,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4540,12 +4379,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4553,7 +4392,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4571,23 +4410,23 @@
         <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>76</v>
@@ -4629,7 +4468,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4647,21 +4486,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN26" t="s" s="2">
+      <c r="B27" t="s" s="2">
         <v>259</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4687,13 +4526,13 @@
         <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4743,7 +4582,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4761,21 +4600,21 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN27" t="s" s="2">
+      <c r="B28" t="s" s="2">
         <v>267</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4801,14 +4640,14 @@
         <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4857,7 +4696,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4875,21 +4714,21 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN28" t="s" s="2">
+      <c r="B29" t="s" s="2">
         <v>275</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4915,14 +4754,14 @@
         <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4971,7 +4810,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4989,21 +4828,21 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN29" t="s" s="2">
+      <c r="B30" t="s" s="2">
         <v>283</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5026,19 +4865,19 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5087,7 +4926,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5105,25 +4944,23 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN30" t="s" s="2">
+      <c r="B31" t="s" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5132,7 +4969,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5144,19 +4981,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5181,35 +5018,37 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5221,23 +5060,25 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5255,18 +5096,20 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5315,10 +5158,10 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
@@ -5327,38 +5170,38 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5367,20 +5210,18 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5417,51 +5258,51 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5469,7 +5310,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5484,26 +5325,22 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
@@ -5545,7 +5382,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5560,24 +5397,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5585,7 +5422,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
@@ -5600,16 +5437,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5647,19 +5484,17 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5674,32 +5509,34 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5714,18 +5551,18 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5773,7 +5610,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5788,24 +5625,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5813,7 +5650,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5828,18 +5665,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5887,7 +5722,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5905,21 +5740,21 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5939,23 +5774,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6003,7 +5834,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6021,25 +5852,23 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6051,29 +5880,27 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6097,11 +5924,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6119,7 +5948,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6137,21 +5966,21 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>239</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6162,7 +5991,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6174,15 +6003,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6207,13 +6038,11 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6231,39 +6060,39 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6286,15 +6115,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6331,19 +6162,19 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6355,31 +6186,29 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6388,7 +6217,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6400,13 +6229,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6457,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6469,13 +6298,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6484,12 +6313,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6509,29 +6338,27 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -6573,13 +6400,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6591,2882 +6418,16 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>258</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y48" s="2"/>
-      <c r="Z48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN68" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ARFMedicationStatement.xlsx
+++ b/StructureDefinition-ARFMedicationStatement.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
